--- a/Hores_feina.xlsx
+++ b/Hores_feina.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubarcelona-my.sharepoint.com/personal/vcarnele7_alumnes_ub_edu/Documents/Feina/UB/Carto/Seguiment_habitats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="14_{AAB7CBA6-E2CE-4554-A50D-46C979D8C302}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{F3E86C0A-4D59-4A94-A619-C08B2CAAC601}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="14_{AAB7CBA6-E2CE-4554-A50D-46C979D8C302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D14AEF58-CADD-5543-B8F6-71F8EACBF441}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{ABC30D23-9473-424B-A90E-98722AE03216}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12160" xr2:uid="{ABC30D23-9473-424B-A90E-98722AE03216}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Dia</t>
   </si>
@@ -34,9 +45,6 @@
   </si>
   <si>
     <t>hora final</t>
-  </si>
-  <si>
-    <t>2371/2026</t>
   </si>
 </sst>
 </file>
@@ -94,9 +102,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -134,7 +142,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -240,7 +248,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -382,7 +390,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -390,15 +398,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32FD3E7-A30A-4C80-B783-A22AB56124D0}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>46043</v>
       </c>
@@ -419,8 +427,12 @@
       <c r="C2" s="2">
         <v>0.58333333333333337</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="2">
+        <f>C2-B2</f>
+        <v>0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>46043</v>
       </c>
@@ -430,8 +442,12 @@
       <c r="C3" s="2">
         <v>0.77083333333333337</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D10" si="0">C3-B3</f>
+        <v>0.10416666666666674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>46044</v>
       </c>
@@ -441,8 +457,12 @@
       <c r="C4" s="2">
         <v>0.58333333333333337</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>46044</v>
       </c>
@@ -452,8 +472,12 @@
       <c r="C5" s="2">
         <v>0.79166666666666663</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>46045</v>
       </c>
@@ -463,16 +487,69 @@
       <c r="C6" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>46045</v>
       </c>
       <c r="B7" s="2">
         <v>0.625</v>
       </c>
       <c r="C7" s="2">
         <v>0.72916666666666663</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>46049</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>46049</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
   </sheetData>
@@ -772,16 +849,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55060E34-C54B-467B-859E-BB6BC610DA27}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="c4bef083-dd18-488d-8b49-2edaf9c952e6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a4f05a8b-6c99-4fde-9c58-e847a1350398"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c4bef083-dd18-488d-8b49-2edaf9c952e6"/>
-    <ds:schemaRef ds:uri="a4f05a8b-6c99-4fde-9c58-e847a1350398"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Hores_feina.xlsx
+++ b/Hores_feina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubarcelona-my.sharepoint.com/personal/vcarnele7_alumnes_ub_edu/Documents/Feina/UB/Carto/Seguiment_habitats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuari\OneDrive - Universitat de Barcelona (2)\Feina\UB\Carto\Seguiment_habitats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="14_{AAB7CBA6-E2CE-4554-A50D-46C979D8C302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D14AEF58-CADD-5543-B8F6-71F8EACBF441}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="102_{217C8A97-0400-4531-AC3E-B1DD77CEBDF5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12160" xr2:uid="{ABC30D23-9473-424B-A90E-98722AE03216}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="12165" xr2:uid="{ABC30D23-9473-424B-A90E-98722AE03216}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -102,9 +102,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -142,7 +142,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -248,7 +248,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -390,7 +390,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -404,9 +404,9 @@
       <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>46043</v>
       </c>
@@ -432,7 +432,7 @@
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>46043</v>
       </c>
@@ -447,7 +447,7 @@
         <v>0.10416666666666674</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>46044</v>
       </c>
@@ -462,7 +462,7 @@
         <v>0.10416666666666669</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>46044</v>
       </c>
@@ -477,7 +477,7 @@
         <v>0.16666666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>46045</v>
       </c>
@@ -492,7 +492,7 @@
         <v>8.3333333333333315E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>46045</v>
       </c>
@@ -507,7 +507,7 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>46048</v>
       </c>
@@ -522,7 +522,7 @@
         <v>0.16666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>46049</v>
       </c>
@@ -537,7 +537,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>46049</v>
       </c>
@@ -805,18 +805,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -839,26 +839,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55060E34-C54B-467B-859E-BB6BC610DA27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a4f05a8b-6c99-4fde-9c58-e847a1350398"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c4bef083-dd18-488d-8b49-2edaf9c952e6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{219A7091-3CEF-46D1-9B3E-B230069E3FF5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55060E34-C54B-467B-859E-BB6BC610DA27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="c4bef083-dd18-488d-8b49-2edaf9c952e6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a4f05a8b-6c99-4fde-9c58-e847a1350398"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>